--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H2">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>819.6098348887451</v>
+        <v>831.993311049466</v>
       </c>
       <c r="R2">
-        <v>819.6098348887451</v>
+        <v>7487.939799445195</v>
       </c>
       <c r="S2">
-        <v>0.03186572258209085</v>
+        <v>0.03160765725194128</v>
       </c>
       <c r="T2">
-        <v>0.03186572258209085</v>
+        <v>0.03160765725194128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H3">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>1020.442717871386</v>
+        <v>1034.658507947867</v>
       </c>
       <c r="R3">
-        <v>1020.442717871386</v>
+        <v>9311.926571530801</v>
       </c>
       <c r="S3">
-        <v>0.03967393163726287</v>
+        <v>0.03930696444033884</v>
       </c>
       <c r="T3">
-        <v>0.03967393163726287</v>
+        <v>0.03930696444033884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H4">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>747.6950786404291</v>
+        <v>775.2331163330223</v>
       </c>
       <c r="R4">
-        <v>747.6950786404291</v>
+        <v>6977.098046997202</v>
       </c>
       <c r="S4">
-        <v>0.02906973896327716</v>
+        <v>0.02945132167048354</v>
       </c>
       <c r="T4">
-        <v>0.02906973896327716</v>
+        <v>0.02945132167048353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H5">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>635.594462266164</v>
+        <v>666.8372933273274</v>
       </c>
       <c r="R5">
-        <v>635.594462266164</v>
+        <v>6001.535639945947</v>
       </c>
       <c r="S5">
-        <v>0.02471136380645805</v>
+        <v>0.02533333421120408</v>
       </c>
       <c r="T5">
-        <v>0.02471136380645805</v>
+        <v>0.02533333421120407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H6">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>117.9985738655033</v>
+        <v>125.537622864644</v>
       </c>
       <c r="R6">
-        <v>117.9985738655033</v>
+        <v>1129.838605781796</v>
       </c>
       <c r="S6">
-        <v>0.004587682650722322</v>
+        <v>0.004769209202804781</v>
       </c>
       <c r="T6">
-        <v>0.004587682650722322</v>
+        <v>0.004769209202804781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H7">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>1028.526534430826</v>
+        <v>1032.342066625571</v>
       </c>
       <c r="R7">
-        <v>1028.526534430826</v>
+        <v>9291.078599630142</v>
       </c>
       <c r="S7">
-        <v>0.03998822344407436</v>
+        <v>0.03921896219033638</v>
       </c>
       <c r="T7">
-        <v>0.03998822344407436</v>
+        <v>0.03921896219033637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H8">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>1280.551266615654</v>
+        <v>1283.810203953822</v>
       </c>
       <c r="R8">
-        <v>1280.551266615654</v>
+        <v>11554.2918355844</v>
       </c>
       <c r="S8">
-        <v>0.04978672738798762</v>
+        <v>0.04877230665704795</v>
       </c>
       <c r="T8">
-        <v>0.04978672738798762</v>
+        <v>0.04877230665704795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H9">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>938.2808689080859</v>
+        <v>961.9136918568714</v>
       </c>
       <c r="R9">
-        <v>938.2808689080859</v>
+        <v>8657.223226711842</v>
       </c>
       <c r="S9">
-        <v>0.03647954990287147</v>
+        <v>0.03654336864777245</v>
       </c>
       <c r="T9">
-        <v>0.03647954990287147</v>
+        <v>0.03654336864777244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H10">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>797.6060580907742</v>
+        <v>827.4155336996532</v>
       </c>
       <c r="R10">
-        <v>797.6060580907742</v>
+        <v>7446.739803296878</v>
       </c>
       <c r="S10">
-        <v>0.03101023474219985</v>
+        <v>0.03143374621740895</v>
       </c>
       <c r="T10">
-        <v>0.03101023474219985</v>
+        <v>0.03143374621740894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H11">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>148.0761443792828</v>
+        <v>155.7678016231587</v>
       </c>
       <c r="R11">
-        <v>148.0761443792828</v>
+        <v>1401.910214608428</v>
       </c>
       <c r="S11">
-        <v>0.005757072617919915</v>
+        <v>0.005917662100411355</v>
       </c>
       <c r="T11">
-        <v>0.005757072617919915</v>
+        <v>0.005917662100411354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H12">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I12">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J12">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>1863.855299400881</v>
+        <v>1870.862627187218</v>
       </c>
       <c r="R12">
-        <v>1863.855299400881</v>
+        <v>16837.76364468496</v>
       </c>
       <c r="S12">
-        <v>0.0724650844531782</v>
+        <v>0.07107459146637803</v>
       </c>
       <c r="T12">
-        <v>0.0724650844531782</v>
+        <v>0.07107459146637801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H13">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I13">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J13">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>2320.564598517531</v>
+        <v>2326.585933700933</v>
       </c>
       <c r="R13">
-        <v>2320.564598517531</v>
+        <v>20939.2734033084</v>
       </c>
       <c r="S13">
-        <v>0.09022154759797174</v>
+        <v>0.08838764661082076</v>
       </c>
       <c r="T13">
-        <v>0.09022154759797174</v>
+        <v>0.08838764661082074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H14">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I14">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J14">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>1700.315656716211</v>
+        <v>1743.228756101264</v>
       </c>
       <c r="R14">
-        <v>1700.315656716211</v>
+        <v>15689.05880491137</v>
       </c>
       <c r="S14">
-        <v>0.06610680437510748</v>
+        <v>0.06622574521070969</v>
       </c>
       <c r="T14">
-        <v>0.06610680437510748</v>
+        <v>0.06622574521070967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H15">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I15">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J15">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>1445.390301991008</v>
+        <v>1499.484375574029</v>
       </c>
       <c r="R15">
-        <v>1445.390301991008</v>
+        <v>13495.35938016626</v>
       </c>
       <c r="S15">
-        <v>0.05619552673174302</v>
+        <v>0.05696582841273252</v>
       </c>
       <c r="T15">
-        <v>0.05619552673174302</v>
+        <v>0.05696582841273251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H16">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I16">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J16">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>268.3377600646025</v>
+        <v>282.290306669812</v>
       </c>
       <c r="R16">
-        <v>268.3377600646025</v>
+        <v>2540.612760028308</v>
       </c>
       <c r="S16">
-        <v>0.01043274038027981</v>
+        <v>0.010724287251192</v>
       </c>
       <c r="T16">
-        <v>0.01043274038027981</v>
+        <v>0.010724287251192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H17">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>2318.983987269581</v>
+        <v>2338.83665108882</v>
       </c>
       <c r="R17">
-        <v>2318.983987269581</v>
+        <v>21049.52985979938</v>
       </c>
       <c r="S17">
-        <v>0.09016009479763516</v>
+        <v>0.08885305477113191</v>
       </c>
       <c r="T17">
-        <v>0.09016009479763516</v>
+        <v>0.0888530547711319</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H18">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>2887.215626189759</v>
+        <v>2908.553719857334</v>
       </c>
       <c r="R18">
-        <v>2887.215626189759</v>
+        <v>26176.983478716</v>
       </c>
       <c r="S18">
-        <v>0.1122524502055655</v>
+        <v>0.1104967646436326</v>
       </c>
       <c r="T18">
-        <v>0.1122524502055655</v>
+        <v>0.1104967646436325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H19">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>2115.510137775233</v>
+        <v>2179.276685927197</v>
       </c>
       <c r="R19">
-        <v>2115.510137775233</v>
+        <v>19613.49017334477</v>
       </c>
       <c r="S19">
-        <v>0.08224920724517293</v>
+        <v>0.08279132732334905</v>
       </c>
       <c r="T19">
-        <v>0.08224920724517293</v>
+        <v>0.08279132732334904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H20">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>1798.335400151131</v>
+        <v>1874.562549042047</v>
       </c>
       <c r="R20">
-        <v>1798.335400151131</v>
+        <v>16871.06294137842</v>
       </c>
       <c r="S20">
-        <v>0.06991772735200033</v>
+        <v>0.07121515252653714</v>
       </c>
       <c r="T20">
-        <v>0.06991772735200033</v>
+        <v>0.07121515252653711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H21">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>333.8622740561583</v>
+        <v>352.90186777588</v>
       </c>
       <c r="R21">
-        <v>333.8622740561583</v>
+        <v>3176.11680998292</v>
       </c>
       <c r="S21">
-        <v>0.01298027689863391</v>
+        <v>0.01340684009365399</v>
       </c>
       <c r="T21">
-        <v>0.01298027689863391</v>
+        <v>0.01340684009365399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H22">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N22">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q22">
-        <v>278.1589711460038</v>
+        <v>302.9329291254693</v>
       </c>
       <c r="R22">
-        <v>278.1589711460038</v>
+        <v>2726.396362129224</v>
       </c>
       <c r="S22">
-        <v>0.01081458058572655</v>
+        <v>0.01150850621869383</v>
       </c>
       <c r="T22">
-        <v>0.01081458058572655</v>
+        <v>0.01150850621869383</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H23">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q23">
-        <v>346.3175823836545</v>
+        <v>376.7243417640889</v>
       </c>
       <c r="R23">
-        <v>346.3175823836545</v>
+        <v>3390.5190758768</v>
       </c>
       <c r="S23">
-        <v>0.01346452853025601</v>
+        <v>0.01431186250514766</v>
       </c>
       <c r="T23">
-        <v>0.01346452853025601</v>
+        <v>0.01431186250514766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H24">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N24">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q24">
-        <v>253.7525600016541</v>
+        <v>282.2662581140218</v>
       </c>
       <c r="R24">
-        <v>253.7525600016541</v>
+        <v>2540.396323026196</v>
       </c>
       <c r="S24">
-        <v>0.009865680397314508</v>
+        <v>0.01072337363986998</v>
       </c>
       <c r="T24">
-        <v>0.009865680397314508</v>
+        <v>0.01072337363986998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H25">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N25">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q25">
-        <v>215.707882170609</v>
+        <v>242.7987963784685</v>
       </c>
       <c r="R25">
-        <v>215.707882170609</v>
+        <v>2185.189167406216</v>
       </c>
       <c r="S25">
-        <v>0.008386536177853465</v>
+        <v>0.009223993793212404</v>
       </c>
       <c r="T25">
-        <v>0.008386536177853465</v>
+        <v>0.009223993793212402</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H26">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N26">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q26">
-        <v>40.04632510001477</v>
+        <v>45.70887686809067</v>
       </c>
       <c r="R26">
-        <v>40.04632510001477</v>
+        <v>411.379891812816</v>
       </c>
       <c r="S26">
-        <v>0.001556966536696711</v>
+        <v>0.001736492943188938</v>
       </c>
       <c r="T26">
-        <v>0.001556966536696711</v>
+        <v>0.001736492943188938</v>
       </c>
     </row>
   </sheetData>
